--- a/tut06/output/2001EE49.xlsx
+++ b/tut06/output/2001EE49.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -603,16 +603,16 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -735,16 +735,16 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
